--- a/thesis/main_new_formulation/sets.xlsx
+++ b/thesis/main_new_formulation/sets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/storage_new_formulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main_new_formulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF65646C-DEFC-8448-9B77-60B713BFEA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23C51DC-B1BD-3943-8F25-AB0DA5C088D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_th" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="_set_f" sheetId="3" r:id="rId3"/>
     <sheet name="_set_t" sheetId="4" r:id="rId4"/>
     <sheet name="_set_a" sheetId="5" r:id="rId5"/>
-    <sheet name="_set_a_double" sheetId="6" r:id="rId6"/>
+    <sheet name="_set_a2" sheetId="6" r:id="rId6"/>
     <sheet name="_set_s" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -284,10 +284,10 @@
     <t>Natural_Gas_supply_grid2</t>
   </si>
   <si>
-    <t>a_d_names</t>
-  </si>
-  <si>
     <t>a_season</t>
+  </si>
+  <si>
+    <t>a2_names</t>
   </si>
 </sst>
 </file>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -995,7 +995,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1231,7 +1231,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>65</v>

--- a/thesis/main_new_formulation/sets.xlsx
+++ b/thesis/main_new_formulation/sets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main_new_formulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23C51DC-B1BD-3943-8F25-AB0DA5C088D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2429FE-23AA-F64E-9358-05C16250AB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="_set_f" sheetId="3" r:id="rId3"/>
     <sheet name="_set_t" sheetId="4" r:id="rId4"/>
     <sheet name="_set_a" sheetId="5" r:id="rId5"/>
-    <sheet name="_set_a2" sheetId="6" r:id="rId6"/>
+    <sheet name="_set_a2" sheetId="8" r:id="rId6"/>
     <sheet name="_set_s" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
   <si>
     <t>th_names</t>
   </si>
@@ -236,55 +236,10 @@
     <t>baseline</t>
   </si>
   <si>
+    <t>a_season</t>
+  </si>
+  <si>
     <t>flows</t>
-  </si>
-  <si>
-    <t>PV2</t>
-  </si>
-  <si>
-    <t>National_Grid_import2</t>
-  </si>
-  <si>
-    <t>National_Grid_export2</t>
-  </si>
-  <si>
-    <t>Storing_EE2</t>
-  </si>
-  <si>
-    <t>HP_heating_winter2</t>
-  </si>
-  <si>
-    <t>HP_heating_summer2</t>
-  </si>
-  <si>
-    <t>HP_cooling2</t>
-  </si>
-  <si>
-    <t>Gas_boiler_heating2</t>
-  </si>
-  <si>
-    <t>Storing_HW2</t>
-  </si>
-  <si>
-    <t>Radiators_heater2</t>
-  </si>
-  <si>
-    <t>Floor_heaters2</t>
-  </si>
-  <si>
-    <t>Air_conditioning_cooling1</t>
-  </si>
-  <si>
-    <t>Induction_stove_cooking2</t>
-  </si>
-  <si>
-    <t>Gas_stove_cooking2</t>
-  </si>
-  <si>
-    <t>Natural_Gas_supply_grid2</t>
-  </si>
-  <si>
-    <t>a_season</t>
   </si>
   <si>
     <t>a2_names</t>
@@ -979,7 +934,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -995,7 +950,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -1217,153 +1172,156 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44BBE4B-38F3-EF46-9A4E-BFB54E90B5F3}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>34</v>

--- a/thesis/main_new_formulation/sets.xlsx
+++ b/thesis/main_new_formulation/sets.xlsx
@@ -8,42 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main_new_formulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2429FE-23AA-F64E-9358-05C16250AB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E90901D-8486-A04C-A1FF-7A2D66700AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="_set_th" sheetId="1" r:id="rId1"/>
-    <sheet name="_set_needs" sheetId="2" r:id="rId2"/>
-    <sheet name="_set_f" sheetId="3" r:id="rId3"/>
-    <sheet name="_set_t" sheetId="4" r:id="rId4"/>
-    <sheet name="_set_a" sheetId="5" r:id="rId5"/>
-    <sheet name="_set_a2" sheetId="8" r:id="rId6"/>
-    <sheet name="_set_s" sheetId="7" r:id="rId7"/>
+    <sheet name="_set_days" sheetId="1" r:id="rId1"/>
+    <sheet name="_set_th" sheetId="2" r:id="rId2"/>
+    <sheet name="_set_needs" sheetId="3" r:id="rId3"/>
+    <sheet name="_set_f" sheetId="4" r:id="rId4"/>
+    <sheet name="_set_t" sheetId="5" r:id="rId5"/>
+    <sheet name="_set_a" sheetId="6" r:id="rId6"/>
+    <sheet name="_set_a2" sheetId="7" r:id="rId7"/>
+    <sheet name="_set_s" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="102">
+  <si>
+    <t>days_names</t>
+  </si>
   <si>
     <t>th_names</t>
   </si>
   <si>
+    <t>h_peak</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
     <t>n_names</t>
   </si>
   <si>
@@ -56,21 +53,45 @@
     <t>t_storage</t>
   </si>
   <si>
+    <t>t_BEV</t>
+  </si>
+  <si>
     <t>a_names</t>
   </si>
   <si>
     <t>a_storage</t>
   </si>
   <si>
+    <t>a_season</t>
+  </si>
+  <si>
     <t>techs</t>
   </si>
   <si>
+    <t>a2_names</t>
+  </si>
+  <si>
+    <t>flows</t>
+  </si>
+  <si>
     <t>s_names</t>
   </si>
   <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
     <t>d1.h1</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>d1.h2</t>
   </si>
   <si>
@@ -86,22 +107,40 @@
     <t>d2.h3</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>EE</t>
   </si>
   <si>
     <t>Hot water</t>
   </si>
   <si>
-    <t>Cold </t>
-  </si>
-  <si>
-    <t>Heat </t>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Heat</t>
   </si>
   <si>
     <t>Cooking</t>
   </si>
   <si>
-    <t>Natural Gas </t>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>BEV battery charge</t>
+  </si>
+  <si>
+    <t>BEV battery discharge</t>
+  </si>
+  <si>
+    <t>Transport urban</t>
+  </si>
+  <si>
+    <t>Transport motorway</t>
+  </si>
+  <si>
+    <t>Fuel</t>
   </si>
   <si>
     <t>EE PV</t>
@@ -146,21 +185,39 @@
     <t>Natural Gas supply</t>
   </si>
   <si>
+    <t>BEV charge home</t>
+  </si>
+  <si>
+    <t>BEV charge street</t>
+  </si>
+  <si>
+    <t>BEV discharge</t>
+  </si>
+  <si>
+    <t>BEV tr urban</t>
+  </si>
+  <si>
+    <t>ICEV tr urban</t>
+  </si>
+  <si>
+    <t>BEV tr motorway</t>
+  </si>
+  <si>
+    <t>ICEV tr motorway</t>
+  </si>
+  <si>
+    <t>Fuel ICEV</t>
+  </si>
+  <si>
     <t>PV sys</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>National Grid EE</t>
   </si>
   <si>
     <t>Storage EE</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>HP</t>
   </si>
   <si>
@@ -188,6 +245,21 @@
     <t>Gas National Grid</t>
   </si>
   <si>
+    <t>BEV home</t>
+  </si>
+  <si>
+    <t>BEV street</t>
+  </si>
+  <si>
+    <t>BEV</t>
+  </si>
+  <si>
+    <t>ICEV</t>
+  </si>
+  <si>
+    <t>Fuel supply</t>
+  </si>
+  <si>
     <t>PV</t>
   </si>
   <si>
@@ -200,6 +272,9 @@
     <t>Storing EE</t>
   </si>
   <si>
+    <t>HP heating</t>
+  </si>
+  <si>
     <t>HP cooling</t>
   </si>
   <si>
@@ -227,22 +302,37 @@
     <t>Natural Gas supply grid</t>
   </si>
   <si>
+    <t>BEV charging home</t>
+  </si>
+  <si>
+    <t>BEV charging street</t>
+  </si>
+  <si>
+    <t>BEV discharging</t>
+  </si>
+  <si>
+    <t>BEV urban</t>
+  </si>
+  <si>
+    <t>ICEV urban</t>
+  </si>
+  <si>
+    <t>BEV motorway</t>
+  </si>
+  <si>
+    <t>ICEV motorway</t>
+  </si>
+  <si>
+    <t>ICEV fuel</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>HP heating summer</t>
+  </si>
+  <si>
     <t>HP heating winter</t>
-  </si>
-  <si>
-    <t>HP heating summer</t>
-  </si>
-  <si>
-    <t>baseline</t>
-  </si>
-  <si>
-    <t>a_season</t>
-  </si>
-  <si>
-    <t>flows</t>
-  </si>
-  <si>
-    <t>a2_names</t>
   </si>
 </sst>
 </file>
@@ -622,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,33 +726,18 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -672,47 +747,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="A2" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -722,87 +850,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -812,116 +925,127 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -931,239 +1055,221 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>48</v>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1172,159 +1278,352 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44BBE4B-38F3-EF46-9A4E-BFB54E90B5F3}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>90</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1334,22 +1633,229 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/main_new_formulation/sets.xlsx
+++ b/thesis/main_new_formulation/sets.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main_new_formulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E90901D-8486-A04C-A1FF-7A2D66700AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60721998-D2C6-F847-9074-FB1061AB21D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_days" sheetId="1" r:id="rId1"/>
     <sheet name="_set_th" sheetId="2" r:id="rId2"/>
     <sheet name="_set_needs" sheetId="3" r:id="rId3"/>
-    <sheet name="_set_f" sheetId="4" r:id="rId4"/>
-    <sheet name="_set_t" sheetId="5" r:id="rId5"/>
-    <sheet name="_set_a" sheetId="6" r:id="rId6"/>
-    <sheet name="_set_a2" sheetId="7" r:id="rId7"/>
-    <sheet name="_set_s" sheetId="8" r:id="rId8"/>
+    <sheet name="_set_t" sheetId="5" r:id="rId4"/>
+    <sheet name="_set_a" sheetId="6" r:id="rId5"/>
+    <sheet name="_set_s" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
   <si>
     <t>days_names</t>
   </si>
@@ -44,9 +42,6 @@
     <t>n_names</t>
   </si>
   <si>
-    <t>f_names</t>
-  </si>
-  <si>
     <t>t_names</t>
   </si>
   <si>
@@ -68,12 +63,6 @@
     <t>techs</t>
   </si>
   <si>
-    <t>a2_names</t>
-  </si>
-  <si>
-    <t>flows</t>
-  </si>
-  <si>
     <t>s_names</t>
   </si>
   <si>
@@ -143,72 +132,9 @@
     <t>Fuel</t>
   </si>
   <si>
-    <t>EE PV</t>
-  </si>
-  <si>
-    <t>EE import National Grid </t>
-  </si>
-  <si>
-    <t>EE export National Grid</t>
-  </si>
-  <si>
-    <t>EE storage</t>
-  </si>
-  <si>
-    <t>HW HP</t>
-  </si>
-  <si>
-    <t>Cooling HP</t>
-  </si>
-  <si>
-    <t>HW Gas boiler</t>
-  </si>
-  <si>
-    <t>HW storage</t>
-  </si>
-  <si>
-    <t>Radiator heating</t>
-  </si>
-  <si>
-    <t>Floor heating</t>
-  </si>
-  <si>
-    <t>Cooling AC</t>
-  </si>
-  <si>
-    <t>Induction cook</t>
-  </si>
-  <si>
-    <t>Gas cook</t>
-  </si>
-  <si>
-    <t>Natural Gas supply</t>
-  </si>
-  <si>
-    <t>BEV charge home</t>
-  </si>
-  <si>
-    <t>BEV charge street</t>
-  </si>
-  <si>
     <t>BEV discharge</t>
   </si>
   <si>
-    <t>BEV tr urban</t>
-  </si>
-  <si>
-    <t>ICEV tr urban</t>
-  </si>
-  <si>
-    <t>BEV tr motorway</t>
-  </si>
-  <si>
-    <t>ICEV tr motorway</t>
-  </si>
-  <si>
-    <t>Fuel ICEV</t>
-  </si>
-  <si>
     <t>PV sys</t>
   </si>
   <si>
@@ -270,9 +196,6 @@
   </si>
   <si>
     <t>Storing EE</t>
-  </si>
-  <si>
-    <t>HP heating</t>
   </si>
   <si>
     <t>HP cooling</t>
@@ -727,17 +650,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -768,68 +691,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -837,10 +760,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -865,57 +788,57 @@
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -924,128 +847,222 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>59</v>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1054,235 +1071,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1292,338 +1085,338 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1631,218 +1424,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1850,12 +1436,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/thesis/main_new_formulation/sets.xlsx
+++ b/thesis/main_new_formulation/sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main_new_formulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60721998-D2C6-F847-9074-FB1061AB21D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58579A1-6157-F047-B1D0-3283C6C431D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_days" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
   <si>
     <t>days_names</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Natural Gas</t>
-  </si>
-  <si>
-    <t>BEV battery charge</t>
   </si>
   <si>
     <t>BEV battery discharge</t>
@@ -773,10 +770,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -834,11 +831,6 @@
     <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -850,11 +842,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -869,7 +864,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -880,7 +875,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -891,7 +886,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -902,7 +897,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -913,7 +908,7 @@
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -924,7 +919,7 @@
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -935,7 +930,7 @@
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -946,7 +941,7 @@
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -957,7 +952,7 @@
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -968,7 +963,7 @@
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -979,7 +974,7 @@
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -990,7 +985,7 @@
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1001,7 +996,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -1012,7 +1007,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -1023,7 +1018,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
@@ -1034,7 +1029,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -1045,7 +1040,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -1056,7 +1051,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1099,7 +1094,7 @@
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -1108,12 +1103,12 @@
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
@@ -1122,12 +1117,12 @@
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -1136,12 +1131,12 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -1150,12 +1145,12 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -1164,12 +1159,12 @@
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -1178,12 +1173,12 @@
         <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -1192,12 +1187,12 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1206,12 +1201,12 @@
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -1220,12 +1215,12 @@
         <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1234,12 +1229,12 @@
         <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -1248,12 +1243,12 @@
         <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1262,12 +1257,12 @@
         <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -1276,12 +1271,12 @@
         <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -1290,12 +1285,12 @@
         <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
@@ -1304,12 +1299,12 @@
         <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -1318,12 +1313,12 @@
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -1332,12 +1327,12 @@
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1346,12 +1341,12 @@
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -1360,12 +1355,12 @@
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -1374,12 +1369,12 @@
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
@@ -1388,12 +1383,12 @@
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -1402,12 +1397,12 @@
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -1416,7 +1411,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1436,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
